--- a/DataResSep.xlsx
+++ b/DataResSep.xlsx
@@ -10164,15 +10164,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" activeCellId="2" sqref="AM1:AP1048576 AG1:AH1048576 W1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E1" activeCellId="2" sqref="I1:J1048576 S1:T1048576 E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0.64152695310860752</v>
       </c>
@@ -10186,109 +10186,73 @@
         <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>0.22731690245938388</v>
+        <v>0.10939973748647147</v>
       </c>
       <c r="F1" s="1">
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>1.3121290459890171</v>
+        <v>3.6783058996811148E-2</v>
       </c>
       <c r="H1" s="1">
         <v>0</v>
       </c>
       <c r="I1" s="1">
-        <v>4.2995887783871548E-2</v>
+        <v>0.18336591501613944</v>
       </c>
       <c r="J1" s="1">
         <v>0</v>
       </c>
       <c r="K1" s="1">
-        <v>0.10939973748647147</v>
+        <v>8.8619565362045197E-2</v>
       </c>
       <c r="L1" s="1">
         <v>0</v>
       </c>
       <c r="M1" s="1">
-        <v>1.0502320728382248</v>
+        <v>0.24260668506527389</v>
       </c>
       <c r="N1" s="1">
         <v>0</v>
       </c>
       <c r="O1" s="1">
-        <v>3.6783058996811148E-2</v>
+        <v>0.28806149094080769</v>
       </c>
       <c r="P1" s="1">
         <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>0.18336591501613944</v>
+        <v>0.28906999996642907</v>
       </c>
       <c r="R1" s="1">
         <v>0</v>
       </c>
       <c r="S1" s="1">
-        <v>0.34597558754944696</v>
+        <v>5.4610898985363789E-2</v>
       </c>
       <c r="T1" s="1">
         <v>0</v>
       </c>
       <c r="U1" s="1">
-        <v>8.8619565362045197E-2</v>
+        <v>4.9055598786210186E-2</v>
       </c>
       <c r="V1" s="1">
         <v>0</v>
       </c>
       <c r="W1" s="1">
-        <v>0.24260668506527389</v>
+        <v>0.79931132447749376</v>
       </c>
       <c r="X1" s="1">
         <v>0</v>
       </c>
       <c r="Y1" s="1">
-        <v>2.7971817984352207</v>
+        <v>2.7781200544701719E-4</v>
       </c>
       <c r="Z1" s="1">
         <v>0</v>
       </c>
-      <c r="AA1" s="1">
-        <v>0.28806149094080769</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>0.28906999996642907</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>5.4610898985363789E-2</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>4.9055598786210186E-2</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>0.79931132447749376</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>2.7781200544701719E-4</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.0407187294563509</v>
       </c>
@@ -10302,109 +10266,73 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.26048336711144837</v>
+        <v>0.26261777397795688</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.30961691517789375</v>
+        <v>0.15670926472073976</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.22304712611016156</v>
+        <v>0.15135321671659602</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.26261777397795688</v>
+        <v>0.27559587346694925</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>0.14781823295501192</v>
+        <v>3.6336583023803125E-2</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0.15670926472073976</v>
+        <v>9.0379471453147453E-2</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.15135321671659602</v>
+        <v>0.21026856652803788</v>
       </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>0.51184753200884547</v>
+        <v>0.92728075711854574</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0.27559587346694925</v>
+        <v>3.1391993014101845E-2</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>3.6336583023803125E-2</v>
+        <v>0.15919825289784822</v>
       </c>
       <c r="X2" s="1">
         <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.89653806435504824</v>
+        <v>6.1358155664598971E-2</v>
       </c>
       <c r="Z2" s="1">
         <v>0</v>
       </c>
-      <c r="AA2" s="1">
-        <v>9.0379471453147453E-2</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0.21026856652803788</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0.92728075711854574</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>3.1391993014101845E-2</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0.15919825289784822</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>6.1358155664598971E-2</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.0917754290274428</v>
       </c>
@@ -10418,109 +10346,73 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>8.0926529152726374</v>
+        <v>0.86576295452538388</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1.8638092305123353</v>
+        <v>0.94600638596443098</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>23.582542050699256</v>
+        <v>0.68115790427221812</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0.86576295452538388</v>
+        <v>0.20870492160764009</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>30.07251414743028</v>
+        <v>0.29506486772924106</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0.94600638596443098</v>
+        <v>1.0534950231181761</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.68115790427221812</v>
+        <v>0.42802562888179901</v>
       </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>6.6546813694598628</v>
+        <v>0.22508165596238244</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0.20870492160764009</v>
+        <v>0.20378916682458315</v>
       </c>
       <c r="V3" s="1">
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>0.29506486772924106</v>
+        <v>2.2522024934298996</v>
       </c>
       <c r="X3" s="1">
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>3.4246910853491066</v>
+        <v>9.727997362578672E-2</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
       </c>
-      <c r="AA3" s="1">
-        <v>1.0534950231181761</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0.42802562888179901</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0.22508165596238244</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0.20378916682458315</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2.2522024934298996</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>9.727997362578672E-2</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6.7990407995901347E-3</v>
       </c>
@@ -10534,109 +10426,73 @@
         <v>0.43054933682113422</v>
       </c>
       <c r="E4" s="1">
-        <v>0.45051661805274562</v>
+        <v>0.16893644242166148</v>
       </c>
       <c r="F4" s="1">
-        <v>8.3312959282313311E-3</v>
+        <v>5.0041885605257373E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>4.6393680949712319E-3</v>
+        <v>2.2875891429330043E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>2.6026453020611076</v>
+        <v>5.4595741358840613E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>6.7549011986580004E-2</v>
+        <v>3.3700419023819921E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>1.8322701937730831E-2</v>
+        <v>0.34770211742557444</v>
       </c>
       <c r="K4" s="1">
-        <v>0.16893644242166148</v>
+        <v>1.7816342787077755E-5</v>
       </c>
       <c r="L4" s="1">
-        <v>5.0041885605257373E-2</v>
+        <v>0.17804440422601187</v>
       </c>
       <c r="M4" s="1">
-        <v>3.7961208959726885E-2</v>
+        <v>0.20428498784054872</v>
       </c>
       <c r="N4" s="1">
-        <v>2.0671134425457964</v>
+        <v>0.28287000935212053</v>
       </c>
       <c r="O4" s="1">
-        <v>2.2875891429330043E-2</v>
+        <v>5.6476155290643905E-2</v>
       </c>
       <c r="P4" s="1">
-        <v>5.4595741358840613E-2</v>
+        <v>0.52526561661534354</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.3700419023819921E-2</v>
+        <v>0.54140982756195299</v>
       </c>
       <c r="R4" s="1">
-        <v>0.34770211742557444</v>
+        <v>3.2162564499743966E-2</v>
       </c>
       <c r="S4" s="1">
-        <v>0.17266163487728831</v>
+        <v>4.10557575404168E-2</v>
       </c>
       <c r="T4" s="1">
-        <v>0.5254925371807937</v>
+        <v>6.8039537295360913E-2</v>
       </c>
       <c r="U4" s="1">
-        <v>1.7816342787077755E-5</v>
+        <v>5.7917117990459815E-2</v>
       </c>
       <c r="V4" s="1">
-        <v>0.17804440422601187</v>
+        <v>4.0041920197490019E-2</v>
       </c>
       <c r="W4" s="1">
-        <v>0.20428498784054872</v>
+        <v>1.5600272701251874</v>
       </c>
       <c r="X4" s="1">
-        <v>0.28287000935212053</v>
+        <v>5.1447027027155361E-3</v>
       </c>
       <c r="Y4" s="1">
-        <v>2.8305570810831706</v>
+        <v>1.3886809043992822E-4</v>
       </c>
       <c r="Z4" s="1">
-        <v>2.7580084393449447</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>5.6476155290643905E-2</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.52526561661534354</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0.54140982756195299</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>3.2162564499743966E-2</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>4.10557575404168E-2</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>6.8039537295360913E-2</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>5.7917117990459815E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>4.0041920197490019E-2</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>1.5600272701251874</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>5.1447027027155361E-3</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>1.3886809043992822E-4</v>
-      </c>
-      <c r="AL4" s="1">
         <v>4.1546361669816831E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5.3473966263281731</v>
       </c>
@@ -10650,109 +10506,73 @@
         <v>0.39179521238009746</v>
       </c>
       <c r="E5" s="1">
-        <v>0.46380200270457655</v>
+        <v>0.33438731530243748</v>
       </c>
       <c r="F5" s="1">
-        <v>4.8626363555307917E-2</v>
+        <v>0.19053549785407256</v>
       </c>
       <c r="G5" s="1">
-        <v>0.53775741927800724</v>
+        <v>7.0631099997174897E-5</v>
       </c>
       <c r="H5" s="1">
-        <v>8.9555398297713792E-2</v>
+        <v>0.31013477664697742</v>
       </c>
       <c r="I5" s="1">
-        <v>0.3041284717318804</v>
+        <v>5.524976913261774E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>0.14196509588458628</v>
+        <v>0.24100214944969245</v>
       </c>
       <c r="K5" s="1">
-        <v>0.33438731530243748</v>
+        <v>0.51137796535401348</v>
       </c>
       <c r="L5" s="1">
-        <v>0.19053549785407256</v>
+        <v>3.835231224267803E-2</v>
       </c>
       <c r="M5" s="1">
-        <v>0.18724357002832273</v>
+        <v>4.1374418754142054E-7</v>
       </c>
       <c r="N5" s="1">
-        <v>0.10931452148333647</v>
+        <v>7.278982638882564E-2</v>
       </c>
       <c r="O5" s="1">
-        <v>7.0631099997174897E-5</v>
+        <v>0.12010113586360752</v>
       </c>
       <c r="P5" s="1">
-        <v>0.31013477664697742</v>
+        <v>6.3637660280937106E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.524976913261774E-2</v>
+        <v>0.11045052076534922</v>
       </c>
       <c r="R5" s="1">
-        <v>0.24100214944969245</v>
+        <v>0.31828158943956547</v>
       </c>
       <c r="S5" s="1">
-        <v>0.48865674899415334</v>
+        <v>1.703999603397375</v>
       </c>
       <c r="T5" s="1">
-        <v>0.53878416179644151</v>
+        <v>0.13800257943994843</v>
       </c>
       <c r="U5" s="1">
-        <v>0.51137796535401348</v>
+        <v>6.2475716751015493E-2</v>
       </c>
       <c r="V5" s="1">
-        <v>3.835231224267803E-2</v>
+        <v>1.0675449594623361E-3</v>
       </c>
       <c r="W5" s="1">
-        <v>4.1374418754142054E-7</v>
+        <v>8.3065036507193532E-2</v>
       </c>
       <c r="X5" s="1">
-        <v>7.278982638882564E-2</v>
+        <v>0.23215077192462447</v>
       </c>
       <c r="Y5" s="1">
-        <v>1.7643553256434163E-3</v>
+        <v>0.11811629013158585</v>
       </c>
       <c r="Z5" s="1">
-        <v>1.7813381682021729</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0.12010113586360752</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>6.3637660280937106E-2</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0.11045052076534922</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0.31828158943956547</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>1.703999603397375</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0.13800257943994843</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>6.2475716751015493E-2</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>1.0675449594623361E-3</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>8.3065036507193532E-2</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0.23215077192462447</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0.11811629013158585</v>
-      </c>
-      <c r="AL5" s="1">
         <v>7.3720682450083399E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1.3307534029349486</v>
       </c>
@@ -10766,109 +10586,73 @@
         <v>0.55292162687013202</v>
       </c>
       <c r="E6" s="1">
-        <v>5.1341963532672521</v>
+        <v>1.5886776958537148</v>
       </c>
       <c r="F6" s="1">
-        <v>11.725712843124059</v>
+        <v>0.12682262488821214</v>
       </c>
       <c r="G6" s="1">
-        <v>5.2319428430172066E-2</v>
+        <v>1.3514321425658437E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>3.5653236970960225</v>
+        <v>1.8813975170338171</v>
       </c>
       <c r="I6" s="1">
-        <v>43.833614025535994</v>
+        <v>1.1899941413447372</v>
       </c>
       <c r="J6" s="1">
-        <v>1.8955364320576464</v>
+        <v>0.28696057539881037</v>
       </c>
       <c r="K6" s="1">
-        <v>1.5886776958537148</v>
+        <v>0.36329260074905079</v>
       </c>
       <c r="L6" s="1">
-        <v>0.12682262488821214</v>
+        <v>5.3910041003202194E-2</v>
       </c>
       <c r="M6" s="1">
-        <v>1.4051773333695114E-4</v>
+        <v>0.60933694770966751</v>
       </c>
       <c r="N6" s="1">
-        <v>45.736605398166461</v>
+        <v>2.8228936576431851E-3</v>
       </c>
       <c r="O6" s="1">
-        <v>1.3514321425658437E-3</v>
+        <v>1.6017127718818076</v>
       </c>
       <c r="P6" s="1">
-        <v>1.8813975170338171</v>
+        <v>0.51405701821924477</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.1899941413447372</v>
+        <v>7.0388389301405022E-2</v>
       </c>
       <c r="R6" s="1">
-        <v>0.28696057539881037</v>
+        <v>0.77921067287672086</v>
       </c>
       <c r="S6" s="1">
-        <v>9.973998796299151</v>
+        <v>0.1831884217063745</v>
       </c>
       <c r="T6" s="1">
-        <v>2.6099404716487506</v>
+        <v>0.26650629467773818</v>
       </c>
       <c r="U6" s="1">
-        <v>0.36329260074905079</v>
+        <v>9.2823328831077606E-2</v>
       </c>
       <c r="V6" s="1">
-        <v>5.3910041003202194E-2</v>
+        <v>0.30607876625297542</v>
       </c>
       <c r="W6" s="1">
-        <v>0.60933694770966751</v>
+        <v>2.9324727863093356</v>
       </c>
       <c r="X6" s="1">
-        <v>2.8228936576431851E-3</v>
+        <v>1.7061945754172476</v>
       </c>
       <c r="Y6" s="1">
-        <v>4.5165415890528928</v>
+        <v>8.2027189078889715E-2</v>
       </c>
       <c r="Z6" s="1">
-        <v>2.4761763794607075</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1.6017127718818076</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0.51405701821924477</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>7.0388389301405022E-2</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0.77921067287672086</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>0.1831884217063745</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.26650629467773818</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>9.2823328831077606E-2</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.30607876625297542</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>2.9324727863093356</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>1.7061945754172476</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>8.2027189078889715E-2</v>
-      </c>
-      <c r="AL6" s="1">
         <v>0.111810626212269</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.292701828773333</v>
       </c>
@@ -10882,109 +10666,73 @@
         <v>8.4608427358191394E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>8.5293232274374683E-3</v>
+        <v>5.0252339946382278E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.44010203389794855</v>
+        <v>0.16822978146105266</v>
       </c>
       <c r="G7" s="1">
-        <v>2.5692477163679008</v>
+        <v>4.2616950410150727E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>4.7012837320079132E-3</v>
+        <v>2.9307483851872439E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>1.8242538637080554E-2</v>
+        <v>0.31576837147076336</v>
       </c>
       <c r="J7" s="1">
-        <v>6.7845696002248254E-2</v>
+        <v>3.711917407631396E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>5.0252339946382278E-2</v>
+        <v>0.17609502630838839</v>
       </c>
       <c r="L7" s="1">
-        <v>0.16822978146105266</v>
+        <v>1.8013922049682068E-5</v>
       </c>
       <c r="M7" s="1">
-        <v>2.0170022124175309</v>
+        <v>0.26905437224955048</v>
       </c>
       <c r="N7" s="1">
-        <v>3.8923864892779783E-2</v>
+        <v>0.21478195301866213</v>
       </c>
       <c r="O7" s="1">
-        <v>4.2616950410150727E-2</v>
+        <v>0.5104937252289552</v>
       </c>
       <c r="P7" s="1">
-        <v>2.9307483851872439E-2</v>
+        <v>5.81180509553339E-2</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.31576837147076336</v>
+        <v>3.175262085577512E-2</v>
       </c>
       <c r="R7" s="1">
-        <v>3.711917407631396E-2</v>
+        <v>0.54836363003828625</v>
       </c>
       <c r="S7" s="1">
-        <v>0.50564251129995297</v>
+        <v>6.8661529336339386E-2</v>
       </c>
       <c r="T7" s="1">
-        <v>0.17946339715496387</v>
+        <v>4.0683739248613862E-2</v>
       </c>
       <c r="U7" s="1">
-        <v>0.17609502630838839</v>
+        <v>3.937327906282604E-2</v>
       </c>
       <c r="V7" s="1">
-        <v>1.8013922049682068E-5</v>
+        <v>5.8900486974730139E-2</v>
       </c>
       <c r="W7" s="1">
-        <v>0.26905437224955048</v>
+        <v>5.0058513333123087E-3</v>
       </c>
       <c r="X7" s="1">
-        <v>0.21478195301866213</v>
+        <v>1.6026077295039858</v>
       </c>
       <c r="Y7" s="1">
-        <v>2.3611451918081334</v>
+        <v>4.1936290471993672E-4</v>
       </c>
       <c r="Z7" s="1">
-        <v>3.303649885235894</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0.5104937252289552</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>5.81180509553339E-2</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>3.175262085577512E-2</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>0.54836363003828625</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>6.8661529336339386E-2</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>4.0683739248613862E-2</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>3.937327906282604E-2</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>5.8900486974730139E-2</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>5.0058513333123087E-3</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>1.6026077295039858</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>4.1936290471993672E-4</v>
-      </c>
-      <c r="AL7" s="1">
         <v>1.375768742157707E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.55672512649670636</v>
       </c>
@@ -10998,109 +10746,73 @@
         <v>0.17176469659921284</v>
       </c>
       <c r="E8" s="1">
-        <v>4.6862077607351275E-2</v>
+        <v>0.18998370967465095</v>
       </c>
       <c r="F8" s="1">
-        <v>0.48118787448109118</v>
+        <v>0.33535709974555289</v>
       </c>
       <c r="G8" s="1">
-        <v>9.3258110825662738E-2</v>
+        <v>0.31563063252206069</v>
       </c>
       <c r="H8" s="1">
-        <v>0.51649758043945693</v>
+        <v>6.9397424755176222E-5</v>
       </c>
       <c r="I8" s="1">
-        <v>0.14219448630746967</v>
+        <v>0.25783008108019645</v>
       </c>
       <c r="J8" s="1">
-        <v>0.30363864114835315</v>
+        <v>5.1636908328546102E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>0.18998370967465095</v>
+        <v>3.8297300614869106E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>0.33535709974555289</v>
+        <v>0.51210904578868321</v>
       </c>
       <c r="M8" s="1">
-        <v>0.11201543765793338</v>
+        <v>7.2503447547360073E-2</v>
       </c>
       <c r="N8" s="1">
-        <v>0.1827320714604104</v>
+        <v>4.1537961170867141E-7</v>
       </c>
       <c r="O8" s="1">
-        <v>0.31563063252206069</v>
+        <v>7.0763773926726087E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>6.9397424755176222E-5</v>
+        <v>0.10801197958623739</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.25783008108019645</v>
+        <v>0.2935941969906451</v>
       </c>
       <c r="R8" s="1">
-        <v>5.1636908328546102E-2</v>
+        <v>0.11975644683601532</v>
       </c>
       <c r="S8" s="1">
-        <v>0.46397510597445613</v>
+        <v>0.13797026345206703</v>
       </c>
       <c r="T8" s="1">
-        <v>0.56742266499808391</v>
+        <v>1.704392461120394</v>
       </c>
       <c r="U8" s="1">
-        <v>3.8297300614869106E-2</v>
+        <v>1.0949466720108767E-3</v>
       </c>
       <c r="V8" s="1">
-        <v>0.51210904578868321</v>
+        <v>6.0913159283618873E-2</v>
       </c>
       <c r="W8" s="1">
-        <v>7.2503447547360073E-2</v>
+        <v>0.24188733970924511</v>
       </c>
       <c r="X8" s="1">
-        <v>4.1537961170867141E-7</v>
+        <v>7.9716353316442418E-2</v>
       </c>
       <c r="Y8" s="1">
-        <v>1.7695715374975045</v>
+        <v>7.7591684903120161E-3</v>
       </c>
       <c r="Z8" s="1">
-        <v>1.7762998352602673E-3</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>7.0763773926726087E-2</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0.10801197958623739</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0.2935941969906451</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0.11975644683601532</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0.13797026345206703</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>1.704392461120394</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>1.0949466720108767E-3</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>6.0913159283618873E-2</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0.24188733970924511</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>7.9716353316442418E-2</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>7.7591684903120161E-3</v>
-      </c>
-      <c r="AL8" s="1">
         <v>0.11222971897314062</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.84602491924666823</v>
       </c>
@@ -11114,109 +10826,73 @@
         <v>9.1425420498475636E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>9.1447574631597668</v>
+        <v>0.12591636818040347</v>
       </c>
       <c r="F9" s="1">
-        <v>6.6662892266800915</v>
+        <v>1.5999432180059379</v>
       </c>
       <c r="G9" s="1">
-        <v>3.6587989792032172</v>
+        <v>1.864627013781444</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0934055367477048E-2</v>
+        <v>1.363819854296928E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>3.0551246728522234</v>
+        <v>0.37347423830395488</v>
       </c>
       <c r="J9" s="1">
-        <v>32.363284760959417</v>
+        <v>0.91607643009642137</v>
       </c>
       <c r="K9" s="1">
-        <v>0.12591636818040347</v>
+        <v>5.4005000471396641E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>1.5999432180059379</v>
+        <v>0.36265578002714011</v>
       </c>
       <c r="M9" s="1">
-        <v>46.75372815313176</v>
+        <v>3.0542098447108642E-3</v>
       </c>
       <c r="N9" s="1">
-        <v>1.3488420200414523E-4</v>
+        <v>0.56344642671089296</v>
       </c>
       <c r="O9" s="1">
-        <v>1.864627013781444</v>
+        <v>0.52812364915974208</v>
       </c>
       <c r="P9" s="1">
-        <v>1.363819854296928E-3</v>
+        <v>1.5594992866707549</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.37347423830395488</v>
+        <v>0.78782972867418399</v>
       </c>
       <c r="R9" s="1">
-        <v>0.91607643009642137</v>
+        <v>6.9612815291314689E-2</v>
       </c>
       <c r="S9" s="1">
-        <v>2.3238560785180691</v>
+        <v>0.26928853029102057</v>
       </c>
       <c r="T9" s="1">
-        <v>11.094897343869006</v>
+        <v>0.18129413822368018</v>
       </c>
       <c r="U9" s="1">
-        <v>5.4005000471396641E-2</v>
+        <v>0.33124806899825887</v>
       </c>
       <c r="V9" s="1">
-        <v>0.36265578002714011</v>
+        <v>8.5754724014676501E-2</v>
       </c>
       <c r="W9" s="1">
-        <v>3.0542098447108642E-3</v>
+        <v>2.1430332328120261</v>
       </c>
       <c r="X9" s="1">
-        <v>0.56344642671089296</v>
+        <v>2.338559384160833</v>
       </c>
       <c r="Y9" s="1">
-        <v>2.8986631859378988</v>
+        <v>0.11732583213350083</v>
       </c>
       <c r="Z9" s="1">
-        <v>3.8676378094945765</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0.52812364915974208</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>1.5594992866707549</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0.78782972867418399</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>6.9612815291314689E-2</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0.26928853029102057</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.18129413822368018</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0.33124806899825887</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>8.5754724014676501E-2</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>2.1430332328120261</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>2.338559384160833</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0.11732583213350083</v>
-      </c>
-      <c r="AL9" s="1">
         <v>7.8169989089649214E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.99764277534969603</v>
       </c>
@@ -11230,109 +10906,73 @@
         <v>0.88056609237234096</v>
       </c>
       <c r="E10" s="1">
-        <v>0.88480969440086688</v>
+        <v>0.92445414819223082</v>
       </c>
       <c r="F10" s="1">
-        <v>0.99869956658744141</v>
+        <v>0.9628388036459421</v>
       </c>
       <c r="G10" s="1">
-        <v>0.99184868414211724</v>
+        <v>0.98829185108043072</v>
       </c>
       <c r="H10" s="1">
-        <v>0.73969499075880363</v>
+        <v>0.95532956402102698</v>
       </c>
       <c r="I10" s="1">
-        <v>0.95035854492166538</v>
+        <v>0.98013580196673245</v>
       </c>
       <c r="J10" s="1">
-        <v>0.99127507410783366</v>
+        <v>0.90243251813119263</v>
       </c>
       <c r="K10" s="1">
-        <v>0.92445414819223082</v>
+        <v>0.99916824773282731</v>
       </c>
       <c r="L10" s="1">
-        <v>0.9628388036459421</v>
+        <v>0.92059884436241302</v>
       </c>
       <c r="M10" s="1">
-        <v>0.96934140601693264</v>
+        <v>0.92285716730426015</v>
       </c>
       <c r="N10" s="1">
-        <v>0.76418637165751602</v>
+        <v>0.90142498744238175</v>
       </c>
       <c r="O10" s="1">
-        <v>0.98829185108043072</v>
+        <v>0.99583663783988108</v>
       </c>
       <c r="P10" s="1">
-        <v>0.95532956402102698</v>
+        <v>0.86965221234939716</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.98013580196673245</v>
+        <v>0.86732849145388213</v>
       </c>
       <c r="R10" s="1">
-        <v>0.90243251813119263</v>
+        <v>0.99561186434640314</v>
       </c>
       <c r="S10" s="1">
-        <v>0.92429125669071133</v>
+        <v>0.96066694524826124</v>
       </c>
       <c r="T10" s="1">
-        <v>0.86908150103498549</v>
+        <v>0.94978848481330591</v>
       </c>
       <c r="U10" s="1">
-        <v>0.99916824773282731</v>
+        <v>0.95353880783616318</v>
       </c>
       <c r="V10" s="1">
-        <v>0.92059884436241302</v>
+        <v>0.96114176643108351</v>
       </c>
       <c r="W10" s="1">
-        <v>0.92285716730426015</v>
+        <v>0.78887931504005315</v>
       </c>
       <c r="X10" s="1">
-        <v>0.90142498744238175</v>
+        <v>0.98625187701475392</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.79029362750817234</v>
+        <v>0.99807765050080843</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.7325179868444438</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0.99583663783988108</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0.86965221234939716</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0.86732849145388213</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0.99561186434640314</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>0.96066694524826124</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0.94978848481330591</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0.95353880783616318</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0.96114176643108351</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0.78887931504005315</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0.98625187701475392</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0.99807765050080843</v>
-      </c>
-      <c r="AL10" s="1">
         <v>0.99765772946034936</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.85554718647586936</v>
       </c>
@@ -11346,109 +10986,73 @@
         <v>0.88545221796706242</v>
       </c>
       <c r="E11" s="1">
-        <v>0.87911845847213099</v>
+        <v>0.95455730993130605</v>
       </c>
       <c r="F11" s="1">
-        <v>0.98007609608163615</v>
+        <v>0.96993561202376011</v>
       </c>
       <c r="G11" s="1">
-        <v>0.86837875223311334</v>
+        <v>0.99943333869831308</v>
       </c>
       <c r="H11" s="1">
-        <v>0.96105250618746763</v>
+        <v>0.89713187824720231</v>
       </c>
       <c r="I11" s="1">
-        <v>0.97103055217004652</v>
+        <v>0.95458476801654302</v>
       </c>
       <c r="J11" s="1">
-        <v>0.97913281139774055</v>
+        <v>0.90970917318601707</v>
       </c>
       <c r="K11" s="1">
-        <v>0.95455730993130605</v>
+        <v>0.88749569016104857</v>
       </c>
       <c r="L11" s="1">
-        <v>0.96993561202376011</v>
+        <v>0.96227077618430545</v>
       </c>
       <c r="M11" s="1">
-        <v>0.95998414142597521</v>
+        <v>0.9999118354480353</v>
       </c>
       <c r="N11" s="1">
-        <v>0.96994430318845148</v>
+        <v>0.94887835241182261</v>
       </c>
       <c r="O11" s="1">
-        <v>0.99943333869831308</v>
+        <v>0.9342561699640517</v>
       </c>
       <c r="P11" s="1">
-        <v>0.89713187824720231</v>
+        <v>0.96329116897222755</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.95458476801654302</v>
+        <v>0.977274890369632</v>
       </c>
       <c r="R11" s="1">
-        <v>0.90970917318601707</v>
+        <v>0.95822496393745482</v>
       </c>
       <c r="S11" s="1">
-        <v>0.90737075872764694</v>
+        <v>0.95134410730210894</v>
       </c>
       <c r="T11" s="1">
-        <v>0.87380096593395329</v>
+        <v>0.99573943816818189</v>
       </c>
       <c r="U11" s="1">
-        <v>0.88749569016104857</v>
+        <v>0.95265358447467585</v>
       </c>
       <c r="V11" s="1">
-        <v>0.96227077618430545</v>
+        <v>0.99796921276273864</v>
       </c>
       <c r="W11" s="1">
-        <v>0.9999118354480353</v>
+        <v>0.98061464874042581</v>
       </c>
       <c r="X11" s="1">
-        <v>0.94887835241182261</v>
+        <v>0.96361657668141965</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.99165238724240035</v>
+        <v>0.93461518614396977</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.87133067968909128</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0.9342561699640517</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0.96329116897222755</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0.977274890369632</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0.95822496393745482</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>0.95134410730210894</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0.99573943816818189</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0.95265358447467585</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0.99796921276273864</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0.98061464874042581</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0.96361657668141965</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0.93461518614396977</v>
-      </c>
-      <c r="AL11" s="1">
         <v>0.99748489578337385</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.9606261716416884</v>
       </c>
@@ -11462,109 +11066,73 @@
         <v>0.97083510680279317</v>
       </c>
       <c r="E12" s="1">
-        <v>0.71956180620709709</v>
+        <v>0.93336407055021431</v>
       </c>
       <c r="F12" s="1">
-        <v>0.7123416121192534</v>
+        <v>0.98351618499601667</v>
       </c>
       <c r="G12" s="1">
-        <v>0.99276789073106309</v>
+        <v>0.99609963479831731</v>
       </c>
       <c r="H12" s="1">
-        <v>0.94089114219138059</v>
+        <v>0.84885477483610128</v>
       </c>
       <c r="I12" s="1">
-        <v>0.28220163488896693</v>
+        <v>0.81321589657018878</v>
       </c>
       <c r="J12" s="1">
-        <v>0.85288502809275435</v>
+        <v>0.90328512432047137</v>
       </c>
       <c r="K12" s="1">
-        <v>0.93336407055021431</v>
+        <v>0.96193813609917189</v>
       </c>
       <c r="L12" s="1">
-        <v>0.98351618499601667</v>
+        <v>0.99362645072672573</v>
       </c>
       <c r="M12" s="1">
-        <v>0.99960462921297777</v>
+        <v>0.86065594215374441</v>
       </c>
       <c r="N12" s="1">
-        <v>0.34663865565600516</v>
+        <v>0.98958671497898842</v>
       </c>
       <c r="O12" s="1">
-        <v>0.99609963479831731</v>
+        <v>0.91193930931099498</v>
       </c>
       <c r="P12" s="1">
-        <v>0.84885477483610128</v>
+        <v>0.90060637134077559</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.81321589657018878</v>
+        <v>0.97949792962224058</v>
       </c>
       <c r="R12" s="1">
-        <v>0.90328512432047137</v>
+        <v>0.89613110491521031</v>
       </c>
       <c r="S12" s="1">
-        <v>0.73273365779650601</v>
+        <v>0.92535374483694233</v>
       </c>
       <c r="T12" s="1">
-        <v>0.79409718924216666</v>
+        <v>0.9454070047507942</v>
       </c>
       <c r="U12" s="1">
-        <v>0.96193813609917189</v>
+        <v>0.97530199941514317</v>
       </c>
       <c r="V12" s="1">
-        <v>0.99362645072672573</v>
+        <v>0.91294229158038487</v>
       </c>
       <c r="W12" s="1">
-        <v>0.86065594215374441</v>
+        <v>0.75186277236215771</v>
       </c>
       <c r="X12" s="1">
-        <v>0.98958671497898842</v>
+        <v>0.82445326307642297</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.71389126340920583</v>
+        <v>0.9458494677122532</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.87950554813802506</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0.91193930931099498</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0.90060637134077559</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0.97949792962224058</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0.89613110491521031</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>0.92535374483694233</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.9454070047507942</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>0.97530199941514317</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0.91294229158038487</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>0.75186277236215771</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>0.82445326307642297</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>0.9458494677122532</v>
-      </c>
-      <c r="AL12" s="1">
         <v>0.93971358070005073</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6.7834751442633258E-5</v>
       </c>
@@ -11578,109 +11146,73 @@
         <v>3.807665348888965E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>4.0042545435655247E-3</v>
+        <v>1.5643827623600275E-3</v>
       </c>
       <c r="F13" s="1">
-        <v>8.3211548926704533E-5</v>
+        <v>4.8206392656215634E-4</v>
       </c>
       <c r="G13" s="1">
-        <v>4.6017646330473127E-5</v>
+        <v>2.2613230063764529E-4</v>
       </c>
       <c r="H13" s="1">
-        <v>1.9766077822412059E-2</v>
+        <v>5.2185416804931013E-4</v>
       </c>
       <c r="I13" s="1">
-        <v>6.4239173669583375E-4</v>
+        <v>3.3042122560286989E-4</v>
       </c>
       <c r="J13" s="1">
-        <v>1.8166166253676629E-4</v>
+        <v>3.1487251579250851E-3</v>
       </c>
       <c r="K13" s="1">
-        <v>1.5643827623600275E-3</v>
+        <v>1.7801527171074392E-7</v>
       </c>
       <c r="L13" s="1">
-        <v>4.8206392656215634E-4</v>
+        <v>1.6419982136936329E-3</v>
       </c>
       <c r="M13" s="1">
-        <v>3.6811345698989004E-4</v>
+        <v>1.8891178361550535E-3</v>
       </c>
       <c r="N13" s="1">
-        <v>1.6130025132434025E-2</v>
+        <v>2.5570941988801907E-3</v>
       </c>
       <c r="O13" s="1">
-        <v>2.2613230063764529E-4</v>
+        <v>5.6272805319679568E-4</v>
       </c>
       <c r="P13" s="1">
-        <v>5.2185416804931013E-4</v>
+        <v>4.5921048032162648E-3</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.3042122560286989E-4</v>
+        <v>4.7213636165912625E-3</v>
       </c>
       <c r="R13" s="1">
-        <v>3.1487251579250851E-3</v>
+        <v>3.2031733030548915E-4</v>
       </c>
       <c r="S13" s="1">
-        <v>1.5986566615578954E-3</v>
+        <v>3.9457108596044924E-4</v>
       </c>
       <c r="T13" s="1">
-        <v>4.5910842349881943E-3</v>
+        <v>6.4667168277235865E-4</v>
       </c>
       <c r="U13" s="1">
-        <v>1.7801527171074392E-7</v>
+        <v>5.525822361249961E-4</v>
       </c>
       <c r="V13" s="1">
-        <v>1.6419982136936329E-3</v>
+        <v>3.8501378601207609E-4</v>
       </c>
       <c r="W13" s="1">
-        <v>1.8891178361550535E-3</v>
+        <v>1.2501763360674637E-2</v>
       </c>
       <c r="X13" s="1">
-        <v>2.5570941988801907E-3</v>
+        <v>5.0742337514836307E-5</v>
       </c>
       <c r="Y13" s="1">
-        <v>2.3021344532609993E-2</v>
+        <v>1.3860132990839325E-6</v>
       </c>
       <c r="Z13" s="1">
-        <v>2.0775909226712862E-2</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>5.6272805319679568E-4</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>4.5921048032162648E-3</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>4.7213636165912625E-3</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>3.2031733030548915E-4</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>3.9457108596044924E-4</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>6.4667168277235865E-4</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>5.525822361249961E-4</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>3.8501378601207609E-4</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>1.2501763360674637E-2</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>5.0742337514836307E-5</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>1.3860132990839325E-6</v>
-      </c>
-      <c r="AL13" s="1">
         <v>4.1449221057784164E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4.8334118403109548E-2</v>
       </c>
@@ -11694,109 +11226,73 @@
         <v>3.4828048606087591E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>4.0963680536101775E-3</v>
+        <v>3.2026277426302125E-3</v>
       </c>
       <c r="F14" s="1">
-        <v>4.7680721961140831E-4</v>
+        <v>1.8515996017528847E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>4.695018980471301E-3</v>
+        <v>7.059112594458006E-7</v>
       </c>
       <c r="H14" s="1">
-        <v>8.6144587104733351E-4</v>
+        <v>2.7909737269651552E-3</v>
       </c>
       <c r="I14" s="1">
-        <v>2.9621892392274899E-3</v>
+        <v>5.2769743211723591E-4</v>
       </c>
       <c r="J14" s="1">
-        <v>1.3920029929218392E-3</v>
+        <v>2.1977152019949059E-3</v>
       </c>
       <c r="K14" s="1">
-        <v>3.2026277426302125E-3</v>
+        <v>4.5617853681495851E-3</v>
       </c>
       <c r="L14" s="1">
-        <v>1.8515996017528847E-3</v>
+        <v>3.6919468740159825E-4</v>
       </c>
       <c r="M14" s="1">
-        <v>1.8008806112602453E-3</v>
+        <v>4.1370770621671558E-9</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0614502929939002E-3</v>
+        <v>6.9119002137829643E-4</v>
       </c>
       <c r="O14" s="1">
-        <v>7.059112594458006E-7</v>
+        <v>1.1234014899524508E-3</v>
       </c>
       <c r="P14" s="1">
-        <v>2.7909737269651552E-3</v>
+        <v>6.134063190562694E-4</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.2769743211723591E-4</v>
+        <v>1.0805987326497949E-3</v>
       </c>
       <c r="R14" s="1">
-        <v>2.1977152019949059E-3</v>
+        <v>3.0595917629201858E-3</v>
       </c>
       <c r="S14" s="1">
-        <v>4.4557015371986773E-3</v>
+        <v>1.649192210259302E-2</v>
       </c>
       <c r="T14" s="1">
-        <v>4.7334040413651648E-3</v>
+        <v>1.3760450868871227E-3</v>
       </c>
       <c r="U14" s="1">
-        <v>4.5617853681495851E-3</v>
+        <v>5.9554922870398653E-4</v>
       </c>
       <c r="V14" s="1">
-        <v>3.6919468740159825E-4</v>
+        <v>1.0653883762876139E-5</v>
       </c>
       <c r="W14" s="1">
-        <v>4.1370770621671558E-9</v>
+        <v>8.1522508298391481E-4</v>
       </c>
       <c r="X14" s="1">
-        <v>6.9119002137829643E-4</v>
+        <v>2.2422487188688807E-3</v>
       </c>
       <c r="Y14" s="1">
-        <v>1.7496580407993944E-5</v>
+        <v>1.10523825129917E-3</v>
       </c>
       <c r="Z14" s="1">
-        <v>1.5802848134031714E-2</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>1.1234014899524508E-3</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>6.134063190562694E-4</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>1.0805987326497949E-3</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>3.0595917629201858E-3</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>1.649192210259302E-2</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>1.3760450868871227E-3</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>5.9554922870398653E-4</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>1.0653883762876139E-5</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>8.1522508298391481E-4</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>2.2422487188688807E-3</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>1.10523825129917E-3</v>
-      </c>
-      <c r="AL14" s="1">
         <v>7.3540688720566082E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.295597758115013E-2</v>
       </c>
@@ -11810,109 +11306,73 @@
         <v>5.3978028862945414E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>3.8943132924232689E-2</v>
+        <v>1.5067521157897191E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>9.4622267241586039E-2</v>
+        <v>1.2489049360346245E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>5.1968238092010095E-4</v>
+        <v>1.3461792563585313E-5</v>
       </c>
       <c r="H15" s="1">
-        <v>3.4786050145549696E-2</v>
+        <v>1.6276559442193354E-2</v>
       </c>
       <c r="I15" s="1">
-        <v>0.22023702124473837</v>
+        <v>9.7937667765269961E-3</v>
       </c>
       <c r="J15" s="1">
-        <v>1.6479114041398284E-2</v>
+        <v>2.5995318217151256E-3</v>
       </c>
       <c r="K15" s="1">
-        <v>1.5067521157897191E-2</v>
+        <v>3.5073921684589155E-3</v>
       </c>
       <c r="L15" s="1">
-        <v>1.2489049360346245E-3</v>
+        <v>5.3595335968142812E-4</v>
       </c>
       <c r="M15" s="1">
-        <v>1.4046237409925096E-6</v>
+        <v>5.2764459831024504E-3</v>
       </c>
       <c r="N15" s="1">
-        <v>0.29216888338485753</v>
+        <v>2.7935769211106587E-5</v>
       </c>
       <c r="O15" s="1">
-        <v>1.3461792563585313E-5</v>
+        <v>1.48444132520133E-2</v>
       </c>
       <c r="P15" s="1">
-        <v>1.6276559442193354E-2</v>
+        <v>4.6535521699329879E-3</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.7937667765269961E-3</v>
+        <v>6.8993845246558103E-4</v>
       </c>
       <c r="R15" s="1">
-        <v>2.5995318217151256E-3</v>
+        <v>7.0375868402394771E-3</v>
       </c>
       <c r="S15" s="1">
-        <v>8.1179709452315313E-2</v>
+        <v>1.6982519212587564E-3</v>
       </c>
       <c r="T15" s="1">
-        <v>2.1280882285756329E-2</v>
+        <v>2.5263019316555577E-3</v>
       </c>
       <c r="U15" s="1">
-        <v>3.5073921684589155E-3</v>
+        <v>9.0614889958599149E-4</v>
       </c>
       <c r="V15" s="1">
-        <v>5.3595335968142812E-4</v>
+        <v>2.8029015892746907E-3</v>
       </c>
       <c r="W15" s="1">
-        <v>5.2764459831024504E-3</v>
+        <v>2.2714260703657278E-2</v>
       </c>
       <c r="X15" s="1">
-        <v>2.7935769211106587E-5</v>
+        <v>1.4310949495442378E-2</v>
       </c>
       <c r="Y15" s="1">
-        <v>3.3768357733464004E-2</v>
+        <v>7.7649066474779274E-4</v>
       </c>
       <c r="Z15" s="1">
-        <v>2.2331065200825059E-2</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>1.48444132520133E-2</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>4.6535521699329879E-3</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>6.8993845246558103E-4</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>7.0375868402394771E-3</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>1.6982519212587564E-3</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>2.5263019316555577E-3</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>9.0614889958599149E-4</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>2.8029015892746907E-3</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>2.2714260703657278E-2</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>1.4310949495442378E-2</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>7.7649066474779274E-4</v>
-      </c>
-      <c r="AL15" s="1">
         <v>1.0518757480433008E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2.2893898988613354E-3</v>
       </c>
@@ -11926,109 +11386,73 @@
         <v>0.11562624227877008</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1111860510555676</v>
+        <v>7.3981469045409157E-2</v>
       </c>
       <c r="F16" s="1">
-        <v>1.2172218636318836E-3</v>
+        <v>3.6679132427495743E-2</v>
       </c>
       <c r="G16" s="1">
-        <v>8.1052982115522847E-3</v>
+        <v>1.1482016618931638E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>0.24053893141878432</v>
+        <v>4.4148581810923709E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>4.8999063341638782E-2</v>
+        <v>1.9533776807664684E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>8.5432642296295689E-3</v>
+        <v>9.441875671088229E-2</v>
       </c>
       <c r="K16" s="1">
-        <v>7.3981469045409157E-2</v>
+        <v>8.3157425190098105E-4</v>
       </c>
       <c r="L16" s="1">
-        <v>3.6679132427495743E-2</v>
+        <v>7.7759157423893346E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>3.0290480526077471E-2</v>
+        <v>7.5253714859584792E-2</v>
       </c>
       <c r="N16" s="1">
-        <v>0.21968360321004995</v>
+        <v>9.6017918358738061E-2</v>
       </c>
       <c r="O16" s="1">
-        <v>1.1482016618931638E-2</v>
+        <v>3.6006341069221262E-3</v>
       </c>
       <c r="P16" s="1">
-        <v>4.4148581810923709E-2</v>
+        <v>0.12575568284738659</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.9533776807664684E-2</v>
+        <v>0.12795014492952661</v>
       </c>
       <c r="R16" s="1">
-        <v>9.441875671088229E-2</v>
+        <v>4.0678183232913693E-3</v>
       </c>
       <c r="S16" s="1">
-        <v>7.4110086647730777E-2</v>
+        <v>3.893848366577831E-2</v>
       </c>
       <c r="T16" s="1">
-        <v>0.12632741473002632</v>
+        <v>4.9564843503921728E-2</v>
       </c>
       <c r="U16" s="1">
-        <v>8.3157425190098105E-4</v>
+        <v>4.590860992771182E-2</v>
       </c>
       <c r="V16" s="1">
-        <v>7.7759157423893346E-2</v>
+        <v>3.8473219782904411E-2</v>
       </c>
       <c r="W16" s="1">
-        <v>7.5253714859584792E-2</v>
+        <v>0.19861892159927222</v>
       </c>
       <c r="X16" s="1">
-        <v>9.6017918358738061E-2</v>
+        <v>1.3697380647731244E-2</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.18668502795921768</v>
+        <v>1.9209634858924829E-3</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.24670610392884335</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>3.6006341069221262E-3</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0.12575568284738659</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0.12795014492952661</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>4.0678183232913693E-3</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>3.893848366577831E-2</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>4.9564843503921728E-2</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>4.590860992771182E-2</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>3.8473219782904411E-2</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>0.19861892159927222</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>1.3697380647731244E-2</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>1.9209634858924829E-3</v>
-      </c>
-      <c r="AL16" s="1">
         <v>2.3381256175448589E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>9.6118695121021086E-2</v>
       </c>
@@ -12042,109 +11466,73 @@
         <v>0.11106497717232883</v>
       </c>
       <c r="E17" s="1">
-        <v>0.11678517347425883</v>
+        <v>4.2240062326063733E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>1.9447096698752442E-2</v>
+        <v>2.8212788374487006E-2</v>
       </c>
       <c r="G17" s="1">
-        <v>0.12692622878641535</v>
+        <v>5.6595539042747576E-4</v>
       </c>
       <c r="H17" s="1">
-        <v>3.8086047941485041E-2</v>
+        <v>0.10007714802583254</v>
       </c>
       <c r="I17" s="1">
-        <v>2.6007258590725987E-2</v>
+        <v>4.4887534551339744E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>1.9475185609337607E-2</v>
+        <v>8.8093111611988018E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>4.2240062326063733E-2</v>
+        <v>0.10794252447080185</v>
       </c>
       <c r="L17" s="1">
-        <v>2.8212788374487006E-2</v>
+        <v>3.7360029128292949E-2</v>
       </c>
       <c r="M17" s="1">
-        <v>3.8214977962764539E-2</v>
+        <v>8.8160414887635691E-5</v>
       </c>
       <c r="N17" s="1">
-        <v>2.8994246518554617E-2</v>
+        <v>5.0430457566799092E-2</v>
       </c>
       <c r="O17" s="1">
-        <v>5.6595539042747576E-4</v>
+        <v>6.4620428545995853E-2</v>
       </c>
       <c r="P17" s="1">
-        <v>0.10007714802583254</v>
+        <v>3.6095424708716177E-2</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.4887534551339744E-2</v>
+        <v>2.1644510897718208E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>8.8093111611988018E-2</v>
+        <v>3.8715444299624993E-2</v>
       </c>
       <c r="S17" s="1">
-        <v>8.8173539735154377E-2</v>
+        <v>3.2163970595298033E-2</v>
       </c>
       <c r="T17" s="1">
-        <v>0.12146563002468155</v>
+        <v>2.8845167449309877E-3</v>
       </c>
       <c r="U17" s="1">
-        <v>0.10794252447080185</v>
+        <v>4.6750866296620161E-2</v>
       </c>
       <c r="V17" s="1">
-        <v>3.7360029128292949E-2</v>
+        <v>2.0201333534984795E-3</v>
       </c>
       <c r="W17" s="1">
-        <v>8.8160414887635691E-5</v>
+        <v>1.8570126176590276E-2</v>
       </c>
       <c r="X17" s="1">
-        <v>5.0430457566799092E-2</v>
+        <v>3.4141174599711471E-2</v>
       </c>
       <c r="Y17" s="1">
-        <v>8.3301161771916592E-3</v>
+        <v>6.4279575604731062E-2</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.11286647217687701</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>6.4620428545995853E-2</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>3.6095424708716177E-2</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>2.1644510897718208E-2</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>3.8715444299624993E-2</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>3.2163970595298033E-2</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>2.8845167449309877E-3</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>4.6750866296620161E-2</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>2.0201333534984795E-3</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>1.8570126176590276E-2</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>3.4141174599711471E-2</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>6.4279575604731062E-2</v>
-      </c>
-      <c r="AL17" s="1">
         <v>2.4415635279055855E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2.6417850777161474E-2</v>
       </c>
@@ -12158,105 +11546,69 @@
         <v>2.376709031091229E-2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.24149506086867023</v>
+        <v>5.1568408291888503E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>0.19303612063916056</v>
+        <v>1.5234910067948701E-2</v>
       </c>
       <c r="G18" s="1">
-        <v>6.7124268880168142E-3</v>
+        <v>3.886903409119102E-3</v>
       </c>
       <c r="H18" s="1">
-        <v>2.4322807663069712E-2</v>
+        <v>0.13486866572170536</v>
       </c>
       <c r="I18" s="1">
-        <v>0.49756134386629475</v>
+        <v>0.17699033665328423</v>
       </c>
       <c r="J18" s="1">
-        <v>0.13063585786584736</v>
+        <v>9.4115343857813505E-2</v>
       </c>
       <c r="K18" s="1">
-        <v>5.1568408291888503E-2</v>
+        <v>3.4554471732369189E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>1.5234910067948701E-2</v>
+        <v>5.8375959135928421E-3</v>
       </c>
       <c r="M18" s="1">
-        <v>3.9396616328123867E-4</v>
+        <v>0.13406761186315314</v>
       </c>
       <c r="N18" s="1">
-        <v>0.36119246095913732</v>
+        <v>1.038534925180047E-2</v>
       </c>
       <c r="O18" s="1">
-        <v>3.886903409119102E-3</v>
+        <v>7.3216277436991717E-2</v>
       </c>
       <c r="P18" s="1">
-        <v>0.13486866572170536</v>
+        <v>9.4740076489291419E-2</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.17699033665328423</v>
+        <v>1.9812131925293838E-2</v>
       </c>
       <c r="R18" s="1">
-        <v>9.4115343857813505E-2</v>
+        <v>9.6831308244550218E-2</v>
       </c>
       <c r="S18" s="1">
-        <v>0.18608663275117868</v>
+        <v>7.2948003241798912E-2</v>
       </c>
       <c r="T18" s="1">
-        <v>0.18462192847207701</v>
+        <v>5.206669331755024E-2</v>
       </c>
       <c r="U18" s="1">
-        <v>3.4554471732369189E-2</v>
+        <v>2.3791851685270836E-2</v>
       </c>
       <c r="V18" s="1">
-        <v>5.8375959135928421E-3</v>
+        <v>8.4254806830340437E-2</v>
       </c>
       <c r="W18" s="1">
-        <v>0.13406761186315314</v>
+        <v>0.22542296693418501</v>
       </c>
       <c r="X18" s="1">
-        <v>1.038534925180047E-2</v>
+        <v>0.16123578742813466</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.25234037885733018</v>
+        <v>5.3374041622999011E-2</v>
       </c>
       <c r="Z18" s="1">
-        <v>9.8163386661149876E-2</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>7.3216277436991717E-2</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>9.4740076489291419E-2</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>1.9812131925293838E-2</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>9.6831308244550218E-2</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>7.2948003241798912E-2</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>5.206669331755024E-2</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>2.3791851685270836E-2</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>8.4254806830340437E-2</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>0.22542296693418501</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>0.16123578742813466</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>5.3374041622999011E-2</v>
-      </c>
-      <c r="AL18" s="1">
         <v>5.9234543551905966E-2</v>
       </c>
     </row>
